--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H2">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I2">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J2">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>2198.878698565826</v>
+        <v>66.97334911525066</v>
       </c>
       <c r="R2">
-        <v>2198.878698565826</v>
+        <v>602.7601420372559</v>
       </c>
       <c r="S2">
-        <v>0.3041731406775692</v>
+        <v>0.008286873704106135</v>
       </c>
       <c r="T2">
-        <v>0.3041731406775692</v>
+        <v>0.008286873704106136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H3">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I3">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J3">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>2617.148330197686</v>
+        <v>73.63481909546934</v>
       </c>
       <c r="R3">
-        <v>2617.148330197686</v>
+        <v>662.7133718592241</v>
       </c>
       <c r="S3">
-        <v>0.362032806873114</v>
+        <v>0.009111123366681189</v>
       </c>
       <c r="T3">
-        <v>0.362032806873114</v>
+        <v>0.009111123366681188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H4">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I4">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J4">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>956.0038945267303</v>
+        <v>29.70276938640666</v>
       </c>
       <c r="R4">
-        <v>956.0038945267303</v>
+        <v>267.32492447766</v>
       </c>
       <c r="S4">
-        <v>0.1322449970923114</v>
+        <v>0.003675239506744218</v>
       </c>
       <c r="T4">
-        <v>0.1322449970923114</v>
+        <v>0.003675239506744218</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>15.5211578573143</v>
+        <v>0.436226</v>
       </c>
       <c r="H5">
-        <v>15.5211578573143</v>
+        <v>1.308678</v>
       </c>
       <c r="I5">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374315</v>
       </c>
       <c r="J5">
-        <v>0.9706062575825598</v>
+        <v>0.02612337021374314</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>1244.5170195649</v>
+        <v>40.814470592098</v>
       </c>
       <c r="R5">
-        <v>1244.5170195649</v>
+        <v>367.330235328882</v>
       </c>
       <c r="S5">
-        <v>0.1721553129395651</v>
+        <v>0.005050133636211605</v>
       </c>
       <c r="T5">
-        <v>0.1721553129395651</v>
+        <v>0.005050133636211604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.470041185613847</v>
+        <v>15.76143266666667</v>
       </c>
       <c r="H6">
-        <v>0.470041185613847</v>
+        <v>47.284298</v>
       </c>
       <c r="I6">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525366</v>
       </c>
       <c r="J6">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525365</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>66.59062165312945</v>
+        <v>2419.837269078832</v>
       </c>
       <c r="R6">
-        <v>66.59062165312945</v>
+        <v>21778.53542170949</v>
       </c>
       <c r="S6">
-        <v>0.009211548841286738</v>
+        <v>0.2994159034638913</v>
       </c>
       <c r="T6">
-        <v>0.009211548841286738</v>
+        <v>0.2994159034638913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.470041185613847</v>
+        <v>15.76143266666667</v>
       </c>
       <c r="H7">
-        <v>0.470041185613847</v>
+        <v>47.284298</v>
       </c>
       <c r="I7">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525366</v>
       </c>
       <c r="J7">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525365</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>79.25745716668344</v>
+        <v>2660.525147734021</v>
       </c>
       <c r="R7">
-        <v>79.25745716668344</v>
+        <v>23944.72632960619</v>
       </c>
       <c r="S7">
-        <v>0.0109637651609577</v>
+        <v>0.3291971534517403</v>
       </c>
       <c r="T7">
-        <v>0.0109637651609577</v>
+        <v>0.3291971534517403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.470041185613847</v>
+        <v>15.76143266666667</v>
       </c>
       <c r="H8">
-        <v>0.470041185613847</v>
+        <v>47.284298</v>
       </c>
       <c r="I8">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525366</v>
       </c>
       <c r="J8">
-        <v>0.02939374241744025</v>
+        <v>0.9438725354525365</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>28.9515259213113</v>
+        <v>1073.201046469896</v>
       </c>
       <c r="R8">
-        <v>28.9515259213113</v>
+        <v>9658.809418229061</v>
       </c>
       <c r="S8">
-        <v>0.004004894209324519</v>
+        <v>0.1327913513165703</v>
       </c>
       <c r="T8">
-        <v>0.004004894209324519</v>
+        <v>0.1327913513165703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.76143266666667</v>
+      </c>
+      <c r="H9">
+        <v>47.284298</v>
+      </c>
+      <c r="I9">
+        <v>0.9438725354525366</v>
+      </c>
+      <c r="J9">
+        <v>0.9438725354525365</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>93.562673</v>
+      </c>
+      <c r="N9">
+        <v>280.688019</v>
+      </c>
+      <c r="O9">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P9">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q9">
+        <v>1474.681770602851</v>
+      </c>
+      <c r="R9">
+        <v>13272.13593542566</v>
+      </c>
+      <c r="S9">
+        <v>0.1824681272203347</v>
+      </c>
+      <c r="T9">
+        <v>0.1824681272203346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.503087</v>
+      </c>
+      <c r="I10">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J10">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>153.5290173333333</v>
+      </c>
+      <c r="N10">
+        <v>460.587052</v>
+      </c>
+      <c r="O10">
+        <v>0.3172206968818489</v>
+      </c>
+      <c r="P10">
+        <v>0.317220696881849</v>
+      </c>
+      <c r="Q10">
+        <v>76.92249002550267</v>
+      </c>
+      <c r="R10">
+        <v>692.302410229524</v>
+      </c>
+      <c r="S10">
+        <v>0.009517919713851521</v>
+      </c>
+      <c r="T10">
+        <v>0.009517919713851519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.470041185613847</v>
-      </c>
-      <c r="H9">
-        <v>0.470041185613847</v>
-      </c>
-      <c r="I9">
-        <v>0.02939374241744025</v>
-      </c>
-      <c r="J9">
-        <v>0.02939374241744025</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="N9">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="O9">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="P9">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="Q9">
-        <v>37.68882842185833</v>
-      </c>
-      <c r="R9">
-        <v>37.68882842185833</v>
-      </c>
-      <c r="S9">
-        <v>0.00521353420587129</v>
-      </c>
-      <c r="T9">
-        <v>0.00521353420587129</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.503087</v>
+      </c>
+      <c r="I11">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J11">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N11">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="P11">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="Q11">
+        <v>84.57354622737735</v>
+      </c>
+      <c r="R11">
+        <v>761.1619160463962</v>
+      </c>
+      <c r="S11">
+        <v>0.01046461473934362</v>
+      </c>
+      <c r="T11">
+        <v>0.01046461473934362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.503087</v>
+      </c>
+      <c r="I12">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J12">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>68.09032333333333</v>
+      </c>
+      <c r="N12">
+        <v>204.27097</v>
+      </c>
+      <c r="O12">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="P12">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="Q12">
+        <v>34.11522660937667</v>
+      </c>
+      <c r="R12">
+        <v>307.03703948439</v>
+      </c>
+      <c r="S12">
+        <v>0.004221210048975872</v>
+      </c>
+      <c r="T12">
+        <v>0.004221210048975872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5010290000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.503087</v>
+      </c>
+      <c r="I13">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="J13">
+        <v>0.0300040943337204</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>93.562673</v>
+      </c>
+      <c r="N13">
+        <v>280.688019</v>
+      </c>
+      <c r="O13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q13">
+        <v>46.87761249051701</v>
+      </c>
+      <c r="R13">
+        <v>421.898512414653</v>
+      </c>
+      <c r="S13">
+        <v>0.005800349831549391</v>
+      </c>
+      <c r="T13">
+        <v>0.00580034983154939</v>
       </c>
     </row>
   </sheetData>
